--- a/src/3Balance-estimates/Nigeria/LivestockParams/Livestock_energy_requirement.xlsx
+++ b/src/3Balance-estimates/Nigeria/LivestockParams/Livestock_energy_requirement.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s2255815/Library/CloudStorage/GoogleDrive-ymutua@gmail.com/My Drive/Ruminant_feed_balance/LivestockParams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26396B2-326C-F840-B53F-ECF6E9DA8128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49823A5-0075-7C43-80A0-A9F52F372D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{3790DFE1-1DDD-424F-80BB-0D55B8F77F91}"/>
+    <workbookView xWindow="3200" yWindow="500" windowWidth="31440" windowHeight="19180" xr2:uid="{3790DFE1-1DDD-424F-80BB-0D55B8F77F91}"/>
   </bookViews>
   <sheets>
     <sheet name="Livestock_energy_requirement" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1005,8 +1018,8 @@
   <dimension ref="A1:O132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H129" sqref="H129"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S83" sqref="S83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3312,31 +3325,31 @@
         <v>17</v>
       </c>
       <c r="E54">
-        <v>6.81</v>
+        <v>6.2</v>
       </c>
       <c r="F54">
-        <v>6.81</v>
+        <v>6.2</v>
       </c>
       <c r="G54">
-        <v>6.81</v>
+        <v>6.2</v>
       </c>
       <c r="H54">
-        <v>6.81</v>
+        <v>6.2</v>
       </c>
       <c r="I54">
-        <v>6.81</v>
+        <v>6.2</v>
       </c>
       <c r="J54">
-        <v>6.81</v>
+        <v>6.2</v>
       </c>
       <c r="K54">
-        <v>6.81</v>
+        <v>6.2</v>
       </c>
       <c r="L54">
-        <v>6.81</v>
+        <v>6.2</v>
       </c>
       <c r="M54">
-        <v>6.81</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
@@ -3353,31 +3366,31 @@
         <v>18</v>
       </c>
       <c r="E55">
-        <v>6.85</v>
+        <v>6.22</v>
       </c>
       <c r="F55">
-        <v>6.85</v>
+        <v>6.22</v>
       </c>
       <c r="G55">
-        <v>6.85</v>
+        <v>6.22</v>
       </c>
       <c r="H55">
-        <v>6.85</v>
+        <v>6.22</v>
       </c>
       <c r="I55">
-        <v>6.85</v>
+        <v>6.22</v>
       </c>
       <c r="J55">
-        <v>6.85</v>
+        <v>6.22</v>
       </c>
       <c r="K55">
-        <v>6.85</v>
+        <v>6.22</v>
       </c>
       <c r="L55">
-        <v>6.85</v>
+        <v>6.22</v>
       </c>
       <c r="M55">
-        <v>6.85</v>
+        <v>6.22</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
@@ -3394,31 +3407,31 @@
         <v>19</v>
       </c>
       <c r="E56">
-        <v>6.85</v>
+        <v>6.22</v>
       </c>
       <c r="F56">
-        <v>6.85</v>
+        <v>6.22</v>
       </c>
       <c r="G56">
-        <v>6.85</v>
+        <v>6.22</v>
       </c>
       <c r="H56">
-        <v>6.85</v>
+        <v>6.22</v>
       </c>
       <c r="I56">
-        <v>6.85</v>
+        <v>6.22</v>
       </c>
       <c r="J56">
-        <v>6.85</v>
+        <v>6.22</v>
       </c>
       <c r="K56">
-        <v>6.85</v>
+        <v>6.22</v>
       </c>
       <c r="L56">
-        <v>6.85</v>
+        <v>6.22</v>
       </c>
       <c r="M56">
-        <v>6.85</v>
+        <v>6.22</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
@@ -3558,31 +3571,31 @@
         <v>17</v>
       </c>
       <c r="E60">
-        <v>6.2</v>
+        <v>6.81</v>
       </c>
       <c r="F60">
-        <v>6.2</v>
+        <v>6.81</v>
       </c>
       <c r="G60">
-        <v>6.2</v>
+        <v>6.81</v>
       </c>
       <c r="H60">
-        <v>6.2</v>
+        <v>6.81</v>
       </c>
       <c r="I60">
-        <v>6.2</v>
+        <v>6.81</v>
       </c>
       <c r="J60">
-        <v>6.2</v>
+        <v>6.81</v>
       </c>
       <c r="K60">
-        <v>6.2</v>
+        <v>6.81</v>
       </c>
       <c r="L60">
-        <v>6.2</v>
+        <v>6.81</v>
       </c>
       <c r="M60">
-        <v>6.2</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
@@ -3599,31 +3612,31 @@
         <v>18</v>
       </c>
       <c r="E61">
-        <v>6.22</v>
+        <v>6.85</v>
       </c>
       <c r="F61">
-        <v>6.22</v>
+        <v>6.85</v>
       </c>
       <c r="G61">
-        <v>6.22</v>
+        <v>6.85</v>
       </c>
       <c r="H61">
-        <v>6.22</v>
+        <v>6.85</v>
       </c>
       <c r="I61">
-        <v>6.22</v>
+        <v>6.85</v>
       </c>
       <c r="J61">
-        <v>6.22</v>
+        <v>6.85</v>
       </c>
       <c r="K61">
-        <v>6.22</v>
+        <v>6.85</v>
       </c>
       <c r="L61">
-        <v>6.22</v>
+        <v>6.85</v>
       </c>
       <c r="M61">
-        <v>6.22</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
@@ -3640,31 +3653,31 @@
         <v>19</v>
       </c>
       <c r="E62">
-        <v>6.22</v>
+        <v>6.85</v>
       </c>
       <c r="F62">
-        <v>6.22</v>
+        <v>6.85</v>
       </c>
       <c r="G62">
-        <v>6.22</v>
+        <v>6.85</v>
       </c>
       <c r="H62">
-        <v>6.22</v>
+        <v>6.85</v>
       </c>
       <c r="I62">
-        <v>6.22</v>
+        <v>6.85</v>
       </c>
       <c r="J62">
-        <v>6.22</v>
+        <v>6.85</v>
       </c>
       <c r="K62">
-        <v>6.22</v>
+        <v>6.85</v>
       </c>
       <c r="L62">
-        <v>6.22</v>
+        <v>6.85</v>
       </c>
       <c r="M62">
-        <v>6.22</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
@@ -3681,31 +3694,31 @@
         <v>17</v>
       </c>
       <c r="E63">
-        <v>3.6</v>
+        <v>3.21</v>
       </c>
       <c r="F63">
-        <v>3.6</v>
+        <v>3.21</v>
       </c>
       <c r="G63">
-        <v>3.6</v>
+        <v>3.21</v>
       </c>
       <c r="H63">
-        <v>3.6</v>
+        <v>3.21</v>
       </c>
       <c r="I63">
-        <v>3.6</v>
+        <v>3.21</v>
       </c>
       <c r="J63">
-        <v>3.6</v>
+        <v>3.21</v>
       </c>
       <c r="K63">
-        <v>3.6</v>
+        <v>3.21</v>
       </c>
       <c r="L63">
-        <v>3.6</v>
+        <v>3.21</v>
       </c>
       <c r="M63">
-        <v>3.6</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
@@ -3722,31 +3735,31 @@
         <v>18</v>
       </c>
       <c r="E64">
-        <v>5.12</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="F64">
-        <v>5.12</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="G64">
-        <v>5.12</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="H64">
-        <v>5.12</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="I64">
-        <v>5.12</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="J64">
-        <v>5.12</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="K64">
-        <v>5.12</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="L64">
-        <v>5.12</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="M64">
-        <v>5.12</v>
+        <v>4.4400000000000004</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
@@ -3763,31 +3776,31 @@
         <v>19</v>
       </c>
       <c r="E65">
-        <v>5.12</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="F65">
-        <v>5.12</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="G65">
-        <v>5.12</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="H65">
-        <v>5.12</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="I65">
-        <v>5.12</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="J65">
-        <v>5.12</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="K65">
-        <v>5.12</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="L65">
-        <v>5.12</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="M65">
-        <v>5.12</v>
+        <v>4.4400000000000004</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
@@ -3927,31 +3940,31 @@
         <v>17</v>
       </c>
       <c r="E69">
-        <v>3.21</v>
+        <v>3.6</v>
       </c>
       <c r="F69">
-        <v>3.21</v>
+        <v>3.6</v>
       </c>
       <c r="G69">
-        <v>3.21</v>
+        <v>3.6</v>
       </c>
       <c r="H69">
-        <v>3.21</v>
+        <v>3.6</v>
       </c>
       <c r="I69">
-        <v>3.21</v>
+        <v>3.6</v>
       </c>
       <c r="J69">
-        <v>3.21</v>
+        <v>3.6</v>
       </c>
       <c r="K69">
-        <v>3.21</v>
+        <v>3.6</v>
       </c>
       <c r="L69">
-        <v>3.21</v>
+        <v>3.6</v>
       </c>
       <c r="M69">
-        <v>3.21</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
@@ -3968,31 +3981,31 @@
         <v>18</v>
       </c>
       <c r="E70">
-        <v>4.4400000000000004</v>
+        <v>5.12</v>
       </c>
       <c r="F70">
-        <v>4.4400000000000004</v>
+        <v>5.12</v>
       </c>
       <c r="G70">
-        <v>4.4400000000000004</v>
+        <v>5.12</v>
       </c>
       <c r="H70">
-        <v>4.4400000000000004</v>
+        <v>5.12</v>
       </c>
       <c r="I70">
-        <v>4.4400000000000004</v>
+        <v>5.12</v>
       </c>
       <c r="J70">
-        <v>4.4400000000000004</v>
+        <v>5.12</v>
       </c>
       <c r="K70">
-        <v>4.4400000000000004</v>
+        <v>5.12</v>
       </c>
       <c r="L70">
-        <v>4.4400000000000004</v>
+        <v>5.12</v>
       </c>
       <c r="M70">
-        <v>4.4400000000000004</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
@@ -4009,31 +4022,31 @@
         <v>19</v>
       </c>
       <c r="E71">
-        <v>4.4400000000000004</v>
+        <v>5.12</v>
       </c>
       <c r="F71">
-        <v>4.4400000000000004</v>
+        <v>5.12</v>
       </c>
       <c r="G71">
-        <v>4.4400000000000004</v>
+        <v>5.12</v>
       </c>
       <c r="H71">
-        <v>4.4400000000000004</v>
+        <v>5.12</v>
       </c>
       <c r="I71">
-        <v>4.4400000000000004</v>
+        <v>5.12</v>
       </c>
       <c r="J71">
-        <v>4.4400000000000004</v>
+        <v>5.12</v>
       </c>
       <c r="K71">
-        <v>4.4400000000000004</v>
+        <v>5.12</v>
       </c>
       <c r="L71">
-        <v>4.4400000000000004</v>
+        <v>5.12</v>
       </c>
       <c r="M71">
-        <v>4.4400000000000004</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">

--- a/src/3Balance-estimates/Nigeria/LivestockParams/Livestock_energy_requirement.xlsx
+++ b/src/3Balance-estimates/Nigeria/LivestockParams/Livestock_energy_requirement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s2255815/Library/CloudStorage/GoogleDrive-ymutua@gmail.com/My Drive/Ruminant_feed_balance/LivestockParams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49823A5-0075-7C43-80A0-A9F52F372D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57305397-6F00-0448-AEAE-E92D7AF718A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="500" windowWidth="31440" windowHeight="19180" xr2:uid="{3790DFE1-1DDD-424F-80BB-0D55B8F77F91}"/>
+    <workbookView xWindow="2720" yWindow="500" windowWidth="31440" windowHeight="19180" xr2:uid="{3790DFE1-1DDD-424F-80BB-0D55B8F77F91}"/>
   </bookViews>
   <sheets>
     <sheet name="Livestock_energy_requirement" sheetId="1" r:id="rId1"/>
@@ -86,15 +86,6 @@
     <t>All</t>
   </si>
   <si>
-    <t>Sahel</t>
-  </si>
-  <si>
-    <t>Savannah</t>
-  </si>
-  <si>
-    <t>Lowlands</t>
-  </si>
-  <si>
     <t>Mean</t>
   </si>
   <si>
@@ -147,6 +138,15 @@
   </si>
   <si>
     <t>Periurban</t>
+  </si>
+  <si>
+    <t>Dry Savannah</t>
+  </si>
+  <si>
+    <t>Forest</t>
+  </si>
+  <si>
+    <t>Wet Savannah</t>
   </si>
 </sst>
 </file>
@@ -1018,8 +1018,8 @@
   <dimension ref="A1:O132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S83" sqref="S83"/>
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1082,7 +1082,7 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E2">
         <v>0.05</v>
@@ -1123,7 +1123,7 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>0.22270000000000001</v>
@@ -1164,7 +1164,7 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>0.22270000000000001</v>
@@ -1205,7 +1205,7 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>0.11600000000000001</v>
@@ -1240,13 +1240,13 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <v>0.05</v>
@@ -1281,13 +1281,13 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E7">
         <v>0.22270000000000001</v>
@@ -1322,13 +1322,13 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E8">
         <v>0.22270000000000001</v>
@@ -1363,13 +1363,13 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E9">
         <v>0.11600000000000001</v>
@@ -1404,13 +1404,13 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E10">
         <v>0.05</v>
@@ -1445,13 +1445,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E11">
         <v>0.22270000000000001</v>
@@ -1486,13 +1486,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E12">
         <v>0.22270000000000001</v>
@@ -1527,13 +1527,13 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <v>0.11600000000000001</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
@@ -1729,16 +1729,16 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E18">
         <v>255</v>
@@ -1776,16 +1776,16 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E19">
         <v>265</v>
@@ -1823,16 +1823,16 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E20">
         <v>265</v>
@@ -1870,16 +1870,16 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E21">
         <v>260</v>
@@ -1917,16 +1917,16 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E22">
         <v>323</v>
@@ -1964,16 +1964,16 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E23">
         <v>323</v>
@@ -2011,16 +2011,16 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E24">
         <v>265</v>
@@ -2058,16 +2058,16 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E25">
         <v>380</v>
@@ -2105,16 +2105,16 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E26">
         <v>380</v>
@@ -2152,16 +2152,16 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E27">
         <v>224</v>
@@ -2199,16 +2199,16 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E28">
         <v>277</v>
@@ -2246,16 +2246,16 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E29">
         <v>277</v>
@@ -2293,16 +2293,16 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E30">
         <v>229</v>
@@ -2340,16 +2340,16 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E31">
         <v>284</v>
@@ -2387,16 +2387,16 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E32">
         <v>284</v>
@@ -2434,16 +2434,16 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E33">
         <v>234</v>
@@ -2481,16 +2481,16 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E34">
         <v>291</v>
@@ -2528,16 +2528,16 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E35">
         <v>291</v>
@@ -2575,16 +2575,16 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B36" t="s">
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E36">
         <v>0.246</v>
@@ -2616,16 +2616,16 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E37">
         <v>0.25800000000000001</v>
@@ -2657,16 +2657,16 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D38" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E38">
         <v>0.25800000000000001</v>
@@ -2698,16 +2698,16 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E39">
         <v>0.246</v>
@@ -2739,16 +2739,16 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E40">
         <v>0.25800000000000001</v>
@@ -2780,16 +2780,16 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D41" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E41">
         <v>0.25800000000000001</v>
@@ -2821,16 +2821,16 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E42">
         <v>0.246</v>
@@ -2862,16 +2862,16 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E43">
         <v>0.25800000000000001</v>
@@ -2903,16 +2903,16 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D44" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E44">
         <v>0.25800000000000001</v>
@@ -2944,16 +2944,16 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E45">
         <v>-1.4999999999999999E-2</v>
@@ -2985,16 +2985,16 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E46">
         <v>-6.2E-2</v>
@@ -3026,16 +3026,16 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D47" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E47">
         <v>-6.2E-2</v>
@@ -3067,16 +3067,16 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E48">
         <v>-1.4999999999999999E-2</v>
@@ -3108,16 +3108,16 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E49">
         <v>-6.2E-2</v>
@@ -3149,16 +3149,16 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D50" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E50">
         <v>-6.2E-2</v>
@@ -3190,16 +3190,16 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E51">
         <v>-1.4999999999999999E-2</v>
@@ -3231,16 +3231,16 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D52" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E52">
         <v>-6.2E-2</v>
@@ -3272,16 +3272,16 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D53" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E53">
         <v>-6.2E-2</v>
@@ -3313,16 +3313,16 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B54" t="s">
         <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E54">
         <v>6.2</v>
@@ -3354,16 +3354,16 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B55" t="s">
         <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E55">
         <v>6.22</v>
@@ -3395,16 +3395,16 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B56" t="s">
         <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D56" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E56">
         <v>6.22</v>
@@ -3436,16 +3436,16 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D57" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E57">
         <v>6.5</v>
@@ -3477,16 +3477,16 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D58" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E58">
         <v>6.53</v>
@@ -3518,16 +3518,16 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D59" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E59">
         <v>6.53</v>
@@ -3559,16 +3559,16 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D60" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E60">
         <v>6.81</v>
@@ -3600,16 +3600,16 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D61" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E61">
         <v>6.85</v>
@@ -3641,16 +3641,16 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D62" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E62">
         <v>6.85</v>
@@ -3682,16 +3682,16 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B63" t="s">
         <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D63" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E63">
         <v>3.21</v>
@@ -3723,16 +3723,16 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B64" t="s">
         <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D64" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E64">
         <v>4.4400000000000004</v>
@@ -3764,16 +3764,16 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B65" t="s">
         <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D65" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E65">
         <v>4.4400000000000004</v>
@@ -3805,16 +3805,16 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B66" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D66" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E66">
         <v>3.43</v>
@@ -3846,16 +3846,16 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B67" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D67" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E67">
         <v>4.92</v>
@@ -3887,16 +3887,16 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B68" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D68" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E68">
         <v>4.92</v>
@@ -3928,16 +3928,16 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B69" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D69" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E69">
         <v>3.6</v>
@@ -3969,16 +3969,16 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B70" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D70" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E70">
         <v>5.12</v>
@@ -4010,16 +4010,16 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B71" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D71" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E71">
         <v>5.12</v>
@@ -4051,7 +4051,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B72" t="s">
         <v>15</v>
@@ -4074,10 +4074,10 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B73" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C73" t="s">
         <v>16</v>
@@ -4097,10 +4097,10 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B74" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C74" t="s">
         <v>16</v>
@@ -4120,7 +4120,7 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B75" t="s">
         <v>15</v>
@@ -4143,10 +4143,10 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B76" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C76" t="s">
         <v>16</v>
@@ -4166,10 +4166,10 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B77" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C77" t="s">
         <v>16</v>
@@ -4189,16 +4189,16 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B78" t="s">
         <v>15</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D78" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="I78">
         <v>0.86</v>
@@ -4212,16 +4212,16 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B79" t="s">
         <v>15</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D79" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I79">
         <v>1.1399999999999999</v>
@@ -4235,16 +4235,16 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B80" t="s">
         <v>15</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D80" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="I80">
         <v>1.1399999999999999</v>
@@ -4258,16 +4258,16 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B81" t="s">
         <v>15</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D81" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I81">
         <v>1.25</v>
@@ -4281,16 +4281,16 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B82" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D82" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="I82">
         <v>0.86</v>
@@ -4304,16 +4304,16 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B83" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D83" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I83">
         <v>1.1399999999999999</v>
@@ -4327,16 +4327,16 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B84" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D84" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="I84">
         <v>1.25</v>
@@ -4350,16 +4350,16 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B85" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D85" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I85">
         <v>3.05</v>
@@ -4373,16 +4373,16 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B86" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D86" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="I86">
         <v>0.86</v>
@@ -4396,16 +4396,16 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B87" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D87" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I87">
         <v>1.1399999999999999</v>
@@ -4419,16 +4419,16 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B88" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D88" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="I88">
         <v>1.25</v>
@@ -4442,16 +4442,16 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B89" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D89" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I89">
         <v>7.3</v>
@@ -4465,16 +4465,16 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B90" t="s">
         <v>15</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D90" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="I90">
         <v>0.86</v>
@@ -4488,16 +4488,16 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B91" t="s">
         <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D91" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I91">
         <v>1.1399999999999999</v>
@@ -4511,16 +4511,16 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B92" t="s">
         <v>15</v>
       </c>
       <c r="C92" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D92" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="I92">
         <v>1.1399999999999999</v>
@@ -4534,16 +4534,16 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B93" t="s">
         <v>15</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D93" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I93">
         <v>1.25</v>
@@ -4557,16 +4557,16 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B94" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D94" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="I94">
         <v>0.86</v>
@@ -4580,16 +4580,16 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B95" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D95" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I95">
         <v>1.1399999999999999</v>
@@ -4603,16 +4603,16 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D96" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="I96">
         <v>1.25</v>
@@ -4626,16 +4626,16 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B97" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D97" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I97">
         <v>3.05</v>
@@ -4649,16 +4649,16 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B98" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C98" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D98" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="I98">
         <v>0.86</v>
@@ -4672,16 +4672,16 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B99" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D99" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I99">
         <v>1.1399999999999999</v>
@@ -4695,16 +4695,16 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B100" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C100" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D100" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="I100">
         <v>1.25</v>
@@ -4718,16 +4718,16 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B101" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D101" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I101">
         <v>7.3</v>
@@ -4741,16 +4741,16 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B102" t="s">
         <v>15</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D102" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E102">
         <v>5.5</v>
@@ -4782,16 +4782,16 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B103" t="s">
         <v>15</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D103" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E103">
         <v>5.5</v>
@@ -4823,16 +4823,16 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B104" t="s">
         <v>15</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D104" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E104">
         <v>5.5</v>
@@ -4864,16 +4864,16 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B105" t="s">
         <v>15</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D105" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E105">
         <v>0.5</v>
@@ -4905,16 +4905,16 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B106" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D106" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E106">
         <v>5.5</v>
@@ -4946,16 +4946,16 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B107" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D107" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E107">
         <v>5.5</v>
@@ -4987,16 +4987,16 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B108" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D108" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E108">
         <v>5.5</v>
@@ -5028,16 +5028,16 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>31</v>
+      </c>
+      <c r="B109" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109" t="s">
+        <v>24</v>
+      </c>
+      <c r="D109" t="s">
         <v>34</v>
-      </c>
-      <c r="B109" t="s">
-        <v>20</v>
-      </c>
-      <c r="C109" t="s">
-        <v>27</v>
-      </c>
-      <c r="D109" t="s">
-        <v>37</v>
       </c>
       <c r="E109">
         <v>0.5</v>
@@ -5069,16 +5069,16 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B110" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D110" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E110">
         <v>5.5</v>
@@ -5110,16 +5110,16 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B111" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D111" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E111">
         <v>5.5</v>
@@ -5151,16 +5151,16 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B112" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D112" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E112">
         <v>5.5</v>
@@ -5192,16 +5192,16 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>31</v>
+      </c>
+      <c r="B113" t="s">
+        <v>18</v>
+      </c>
+      <c r="C113" t="s">
+        <v>24</v>
+      </c>
+      <c r="D113" t="s">
         <v>34</v>
-      </c>
-      <c r="B113" t="s">
-        <v>21</v>
-      </c>
-      <c r="C113" t="s">
-        <v>27</v>
-      </c>
-      <c r="D113" t="s">
-        <v>37</v>
       </c>
       <c r="E113">
         <v>0.5</v>
@@ -5233,16 +5233,16 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B114" t="s">
         <v>15</v>
       </c>
       <c r="C114" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D114" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E114">
         <v>5.5</v>
@@ -5274,16 +5274,16 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B115" t="s">
         <v>15</v>
       </c>
       <c r="C115" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D115" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E115">
         <v>5.5</v>
@@ -5315,16 +5315,16 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B116" t="s">
         <v>15</v>
       </c>
       <c r="C116" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D116" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E116">
         <v>5.5</v>
@@ -5356,16 +5356,16 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B117" t="s">
         <v>15</v>
       </c>
       <c r="C117" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D117" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E117">
         <v>0.5</v>
@@ -5397,16 +5397,16 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B118" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C118" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D118" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E118">
         <v>5.5</v>
@@ -5438,16 +5438,16 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B119" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C119" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D119" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E119">
         <v>5.5</v>
@@ -5479,16 +5479,16 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B120" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C120" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D120" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E120">
         <v>5.5</v>
@@ -5520,16 +5520,16 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>31</v>
+      </c>
+      <c r="B121" t="s">
+        <v>17</v>
+      </c>
+      <c r="C121" t="s">
+        <v>25</v>
+      </c>
+      <c r="D121" t="s">
         <v>34</v>
-      </c>
-      <c r="B121" t="s">
-        <v>20</v>
-      </c>
-      <c r="C121" t="s">
-        <v>28</v>
-      </c>
-      <c r="D121" t="s">
-        <v>37</v>
       </c>
       <c r="E121">
         <v>0.5</v>
@@ -5561,16 +5561,16 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B122" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C122" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D122" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E122">
         <v>5.5</v>
@@ -5602,16 +5602,16 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B123" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C123" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D123" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E123">
         <v>5.5</v>
@@ -5643,16 +5643,16 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B124" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C124" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D124" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E124">
         <v>5.5</v>
@@ -5684,16 +5684,16 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
+        <v>31</v>
+      </c>
+      <c r="B125" t="s">
+        <v>18</v>
+      </c>
+      <c r="C125" t="s">
+        <v>25</v>
+      </c>
+      <c r="D125" t="s">
         <v>34</v>
-      </c>
-      <c r="B125" t="s">
-        <v>21</v>
-      </c>
-      <c r="C125" t="s">
-        <v>28</v>
-      </c>
-      <c r="D125" t="s">
-        <v>37</v>
       </c>
       <c r="E125">
         <v>0.5</v>
@@ -5725,16 +5725,16 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B126" t="s">
         <v>15</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D126" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E126">
         <v>0.9</v>
@@ -5742,16 +5742,16 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B127" t="s">
         <v>15</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D127" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E127">
         <v>0.9</v>
@@ -5759,16 +5759,16 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B128" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D128" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E128">
         <v>0.9</v>
@@ -5776,16 +5776,16 @@
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B129" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D129" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E129">
         <v>0.9</v>
@@ -5793,16 +5793,16 @@
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B130" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D130" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E130">
         <v>0.9</v>
@@ -5810,16 +5810,16 @@
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B131" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D131" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E131">
         <v>0.9</v>
@@ -5827,7 +5827,7 @@
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B132" t="s">
         <v>16</v>

--- a/src/3Balance-estimates/Nigeria/LivestockParams/Livestock_energy_requirement.xlsx
+++ b/src/3Balance-estimates/Nigeria/LivestockParams/Livestock_energy_requirement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s2255815/Library/CloudStorage/GoogleDrive-ymutua@gmail.com/My Drive/Ruminant_feed_balance/LivestockParams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57305397-6F00-0448-AEAE-E92D7AF718A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C74185E-7132-194A-81A1-53EA238E027D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="500" windowWidth="31440" windowHeight="19180" xr2:uid="{3790DFE1-1DDD-424F-80BB-0D55B8F77F91}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{3790DFE1-1DDD-424F-80BB-0D55B8F77F91}"/>
   </bookViews>
   <sheets>
     <sheet name="Livestock_energy_requirement" sheetId="1" r:id="rId1"/>
@@ -1018,8 +1018,8 @@
   <dimension ref="A1:O132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A75" sqref="A75:XFD77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4109,13 +4109,13 @@
         <v>16</v>
       </c>
       <c r="I74">
-        <v>240</v>
+        <v>0.69</v>
       </c>
       <c r="K74">
-        <v>150</v>
+        <v>0.69</v>
       </c>
       <c r="M74">
-        <v>270</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
